--- a/data/income_statement/2digits/size/31_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/31_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>31-Manufacture of furniture</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>31-Manufacture of furniture</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,833 +841,943 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3401476.1321</v>
+        <v>3259719.86865</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3774502.95937</v>
+        <v>3565549.9122</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>5236391.30021</v>
+        <v>4951502.58827</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>5652063.14335</v>
+        <v>5405033.181390001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>6263260.330800001</v>
+        <v>5788394.314680001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7517347.95122</v>
+        <v>6939571.43004</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8641250.69702</v>
+        <v>8194275.4402</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>9432641.11875</v>
+        <v>8666464.32308</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>12739767.34443</v>
+        <v>11820422.5704</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>11734112.13604</v>
+        <v>11526986.72041</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>13467573.97929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13250806.01682</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>18315566.392</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2869539.85917</v>
+        <v>2744686.56425</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3214616.83034</v>
+        <v>3046967.03315</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>4376324.94192</v>
+        <v>4154628.16077</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4734830.94934</v>
+        <v>4536062.2055</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5267461.4752</v>
+        <v>4858264.453939999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>6427486.86348</v>
+        <v>5920888.58307</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7269944.25781</v>
+        <v>6909935.47507</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>7904858.123520001</v>
+        <v>7256204.37714</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>10883054.05301</v>
+        <v>10082244.07522</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>9764750.621100001</v>
+        <v>9590952.27029</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>10748616.32217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10616029.09327</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>14507993.479</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>482795.96548</v>
+        <v>467453.96104</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>519161.95109</v>
+        <v>481509.272</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>800867.85863</v>
+        <v>743145.4969500001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>834185.87792</v>
+        <v>790975.5888500001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>913449.56099</v>
+        <v>852228.91915</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>966962.72214</v>
+        <v>901406.24874</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1251725.33615</v>
+        <v>1173097.43144</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1422897.42221</v>
+        <v>1316066.04306</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1664336.06445</v>
+        <v>1564947.95381</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1777543.42401</v>
+        <v>1745633.35499</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2518939.96987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2438488.07306</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3603853.611</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>49140.30745</v>
+        <v>47579.34336</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>40724.17793999999</v>
+        <v>37073.60705</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>59198.49965999999</v>
+        <v>53728.93055</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>83046.31609000001</v>
+        <v>77995.38704</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>82349.29461</v>
+        <v>77900.94159</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>122898.3656</v>
+        <v>117276.59823</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>119581.10306</v>
+        <v>111242.53369</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>104885.57302</v>
+        <v>94193.90287999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>192377.22697</v>
+        <v>173230.54137</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>191818.09093</v>
+        <v>190401.09513</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>200017.68725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>196288.85049</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>203719.302</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>125361.00923</v>
+        <v>112634.80944</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>144578.94605</v>
+        <v>130887.23861</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>221415.02918</v>
+        <v>205151.95393</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>372513.15041</v>
+        <v>360072.45265</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>378430.17928</v>
+        <v>350050.88546</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>416909.74025</v>
+        <v>392824.18966</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>508197.40903</v>
+        <v>528307.5194100001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>803319.10838</v>
+        <v>781859.47864</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1154972.37108</v>
+        <v>1129900.89275</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1196493.92795</v>
+        <v>1180993.29508</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1556008.33237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1549748.27181</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2222933.567</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>36791.47266</v>
+        <v>35682.12482</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>41841.20297</v>
+        <v>38172.59253</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>60189.14411</v>
+        <v>58243.22094</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>78388.36606999999</v>
+        <v>76486.85189000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>67394.67375</v>
+        <v>64788.22588000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>91913.68261</v>
+        <v>87039.96409000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>88281.73659</v>
+        <v>86286.01777999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>124866.03814</v>
+        <v>113555.08863</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>180805.30688</v>
+        <v>157384.36106</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>149121.5009</v>
+        <v>142026.67749</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>226082.84925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>224728.80999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>204891.675</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>72246.56126</v>
+        <v>60875.46648</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>84693.39988</v>
+        <v>75812.79265</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>131295.89938</v>
+        <v>117017.54196</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>270685.2692</v>
+        <v>260428.49084</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>289774.17215</v>
+        <v>265291.89564</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>316213.64106</v>
+        <v>297410.64968</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>389403.97774</v>
+        <v>411451.24756</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>629318.3740299999</v>
+        <v>620842.0855599999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>939609.79339</v>
+        <v>938657.0569600001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>991228.88428</v>
+        <v>983872.89797</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1276675.10752</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1272047.63342</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1954438.189</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>16322.97531</v>
+        <v>16077.21814</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>18044.3432</v>
+        <v>16901.85343</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>29929.98569</v>
+        <v>29891.19103</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>23439.51514</v>
+        <v>23157.10992</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>21261.33338</v>
+        <v>19970.76394</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>8782.416580000001</v>
+        <v>8373.57589</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>30511.6947</v>
+        <v>30570.25407</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>49134.69621</v>
+        <v>47462.30445</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>34557.27081</v>
+        <v>33859.47472999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>56143.54277</v>
+        <v>55093.71962</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>53250.3756</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>52971.8284</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>63603.703</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3276115.12287</v>
+        <v>3147085.05921</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3629924.01332</v>
+        <v>3434662.67359</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5014976.271029999</v>
+        <v>4746350.63434</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>5279549.992939999</v>
+        <v>5044960.72874</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5884830.151520001</v>
+        <v>5438343.42922</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7100438.21097</v>
+        <v>6546747.24038</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8133053.28799</v>
+        <v>7665967.92079</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8629322.010370001</v>
+        <v>7884604.844439999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>11584794.97335</v>
+        <v>10690521.67765</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>10537618.20809</v>
+        <v>10345993.42533</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>11911565.64692</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11701057.74501</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>16092632.825</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2382564.21766</v>
+        <v>2276798.91695</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2636496.95179</v>
+        <v>2486364.99072</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3657737.73024</v>
+        <v>3446052.66217</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3943064.63477</v>
+        <v>3765562.32032</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4319791.68371</v>
+        <v>3959719.34419</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5252233.675720001</v>
+        <v>4817884.2588</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5919648.15837</v>
+        <v>5558761.76142</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6207654.89534</v>
+        <v>5615141.96458</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>8431377.62094</v>
+        <v>7731521.92917</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>7654897.62565</v>
+        <v>7470774.67341</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>8505225.09265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8368532.00385</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>11405954.617</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2012931.63803</v>
+        <v>1921042.35344</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>2261095.47282</v>
+        <v>2136602.1167</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3108017.85898</v>
+        <v>2936362.22656</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3411305.43569</v>
+        <v>3252208.6281</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3630928.46117</v>
+        <v>3360230.47795</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4195834.896699999</v>
+        <v>3829760.84631</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4704359.485479999</v>
+        <v>4424853.63079</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5145687.15541</v>
+        <v>4644176.50937</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>6912942.31164</v>
+        <v>6302145.68288</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>6130869.16495</v>
+        <v>6019126.84255</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>6635772.21046</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>6570193.413319999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>8883047.918</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>354279.58432</v>
+        <v>344486.15634</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>354423.54948</v>
+        <v>334438.81455</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>512152.92825</v>
+        <v>474107.57104</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>471562.52531</v>
+        <v>456435.95791</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>531926.59156</v>
+        <v>451846.69518</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>658675.88787</v>
+        <v>601331.6850299999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>901043.15253</v>
+        <v>852171.56221</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>806702.33851</v>
+        <v>729924.68859</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1126564.32484</v>
+        <v>1061913.18601</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1089725.85554</v>
+        <v>1063152.02292</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1419198.06545</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1392148.12926</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1958817.161</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>5996.44675</v>
+        <v>2050.3027</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>5623.3515</v>
+        <v>3214.00649</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>17359.85607</v>
+        <v>15730.85833</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>37204.96428</v>
+        <v>34329.17908</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>62071.87338</v>
+        <v>53084.85646</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>241091.03985</v>
+        <v>230837.24482</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>211454.7319</v>
+        <v>184091.11003</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>149907.61865</v>
+        <v>140130.11541</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>241363.50392</v>
+        <v>220124.9456</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>258924.28178</v>
+        <v>213123.48456</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>150958.49441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>106916.10577</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>97535.776</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>9356.548560000001</v>
+        <v>9220.10447</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>15354.57799</v>
+        <v>12110.05298</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>20207.08694</v>
+        <v>19852.00624</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>22991.70949</v>
+        <v>22588.55523</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>94864.7576</v>
+        <v>94557.3146</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>156631.8513</v>
+        <v>155954.48264</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>102790.78846</v>
+        <v>97645.45839</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>105357.78277</v>
+        <v>100910.65121</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>150507.48054</v>
+        <v>147338.11468</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>175378.32338</v>
+        <v>175372.32338</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>299296.32233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>299274.3555</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>466553.762</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>893550.90521</v>
+        <v>870286.14226</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>993427.0615299999</v>
+        <v>948297.68287</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1357238.54079</v>
+        <v>1300297.97217</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1336485.35817</v>
+        <v>1279398.40842</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1565038.46781</v>
+        <v>1478624.08503</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1848204.53525</v>
+        <v>1728862.98158</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2213405.12962</v>
+        <v>2107206.15937</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2421667.11503</v>
+        <v>2269462.87986</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>3153417.35241</v>
+        <v>2958999.74848</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2882720.58244</v>
+        <v>2875218.75192</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3406340.55427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3332525.74116</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4686678.208</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>526812.19228</v>
+        <v>505949.15316</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>668505.37349</v>
+        <v>635609.1979</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>906842.4402599999</v>
+        <v>864088.5619</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>920347.3460499999</v>
+        <v>881032.8070599999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1054040.60502</v>
+        <v>996162.9425700001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1319452.94946</v>
+        <v>1247831.78977</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1490093.59356</v>
+        <v>1424893.85398</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1771976.41568</v>
+        <v>1651684.50715</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2096638.75121</v>
+        <v>1947715.41993</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2095001.23539</v>
+        <v>2053570.77412</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2268333.52958</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2214960.52408</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2544455.934</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>3011.52403</v>
+        <v>2882.33709</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>5001.76847</v>
+        <v>4994.18816</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>5982.88947</v>
+        <v>5000.97516</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>6774.76619</v>
+        <v>5897.02464</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>12956.07759</v>
+        <v>10012.71212</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>14740.50388</v>
+        <v>14445.19521</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>21742.65342</v>
+        <v>21447.58722</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>28101.54183</v>
+        <v>27931.60393</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>34549.20306</v>
+        <v>33895.67472</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>45677.30646</v>
+        <v>44229.78026</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>61968.72018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>59753.01607</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>64656.765</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>397968.34306</v>
+        <v>386092.78631</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>501755.9845899999</v>
+        <v>485338.98516</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>674823.42742</v>
+        <v>656451.08927</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>642576.2790099999</v>
+        <v>625063.15309</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>702254.75564</v>
+        <v>671839.5806100001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>863235.1215700001</v>
+        <v>823371.67844</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>979385.4817100001</v>
+        <v>951476.7469800001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1187367.67571</v>
+        <v>1127448.8662</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>1430786.28999</v>
+        <v>1350114.8713</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1484520.53469</v>
+        <v>1455892.61948</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1580176.90698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1555257.05523</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1771150.492</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>125832.32519</v>
+        <v>116974.02976</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>161747.62043</v>
+        <v>145276.02458</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>226036.12337</v>
+        <v>202636.49747</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>270996.30085</v>
+        <v>250072.62933</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>338829.77179</v>
+        <v>314310.64984</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>441477.32401</v>
+        <v>410014.91612</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>488965.45843</v>
+        <v>451969.51978</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>556507.19814</v>
+        <v>496304.03702</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>631303.25816</v>
+        <v>563704.87391</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>564803.3942400001</v>
+        <v>553448.3743800001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>626187.9024199999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>599950.4527799999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>708648.677</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>366738.71293</v>
+        <v>364336.9891</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>324921.68804</v>
+        <v>312688.48497</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>450396.10053</v>
+        <v>436209.41027</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>416138.01212</v>
+        <v>398365.60136</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>510997.86279</v>
+        <v>482461.14246</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>528751.58579</v>
+        <v>481031.19181</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>723311.53606</v>
+        <v>682312.30539</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>649690.69935</v>
+        <v>617778.37271</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1056778.6012</v>
+        <v>1011284.32855</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>787719.34705</v>
+        <v>821647.9778</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1138007.02469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1117565.21708</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2142222.274</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>94663.7365</v>
+        <v>82702.75351000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>113567.53133</v>
+        <v>98734.88158</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>146966.93881</v>
+        <v>136214.84658</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>176698.49131</v>
+        <v>171528.91453</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>228848.13946</v>
+        <v>206290.35181</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>420686.03751</v>
+        <v>402753.30326</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>502762.43106</v>
+        <v>467127.90418</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>529992.6790400001</v>
+        <v>494510.13193</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>744851.94825</v>
+        <v>701464.58202</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1523175.04381</v>
+        <v>1366570.21355</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1086821.8162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1047126.94687</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1402103.072</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>77.57531</v>
@@ -1775,7 +1786,7 @@
         <v>58.75371</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1695.88843</v>
+        <v>134.3225</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>2968.02387</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>4340.08185</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>525.197</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1823,67 +1839,77 @@
         <v>24.93662</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>30372.7678</v>
+        <v>30001.10993</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>3116.18168</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>618.51852</v>
+        <v>619.54173</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>15689.1</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>11289.98166</v>
+        <v>6972.76916</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>729.429</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>7824.047519999999</v>
+        <v>6974.65759</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>13919.7159</v>
+        <v>13589.49819</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>12609.76159</v>
+        <v>11223.90796</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>18870.04777</v>
+        <v>18798.91345</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>16675.93796</v>
+        <v>15904.82065</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>18665.0692</v>
+        <v>16687.33433</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>22901.5163</v>
+        <v>21444.60346</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>23614.99806</v>
+        <v>22062.63484</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>51453.62072</v>
+        <v>46440.78251</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>104357.69465</v>
+        <v>99787.52865000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>91002.89684999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>89427.73375</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>103781.894</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>713.9914200000001</v>
@@ -1904,10 +1930,10 @@
         <v>581.17662</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>572.57565</v>
+        <v>519.2403400000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1021.38685</v>
+        <v>755.0037600000001</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>2827.14903</v>
@@ -1916,40 +1942,45 @@
         <v>1445.67899</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>921.7717700000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>910.4304599999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1827.13</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>3768.42467</v>
+        <v>3437.90958</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1067.90142</v>
+        <v>1065.08142</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>1315.19203</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>6809.61395</v>
+        <v>6376.96283</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4199.25583</v>
+        <v>1860.71767</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>43233.16593</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4251.75812</v>
+        <v>3218.01358</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3391.59465</v>
+        <v>3342.30125</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3269.93352</v>
+        <v>2950.62668</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>10723.45099</v>
@@ -1957,92 +1988,107 @@
       <c r="M30" s="48" t="n">
         <v>21686.056</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>9049.976000000001</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>60.79559</v>
+        <v>56.50822</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>1467.3177</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>2039.48931</v>
+        <v>1508.25836</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>5569.65141</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>5368.37348</v>
+        <v>5368.143929999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1352.2518</v>
+        <v>1352.15279</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1971.15876</v>
+        <v>1971.00487</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3114.5046</v>
+        <v>3144.11914</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>4222.72992</v>
+        <v>3901.12241</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>4297.4841</v>
+        <v>4288.85541</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>26168.33142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>26150.75607</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>40647.12</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>54468.92932</v>
+        <v>45709.05752</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>68078.55333</v>
+        <v>54528.08968</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>92086.74979</v>
+        <v>86033.17654</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>87357.91537</v>
+        <v>84081.76041</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>125350.58335</v>
+        <v>118011.22671</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>158389.26341</v>
+        <v>147914.42457</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>308959.15219</v>
+        <v>281721.5577</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>324224.18668</v>
+        <v>297044.61133</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>445730.71691</v>
+        <v>422667.5398</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1152077.1927</v>
+        <v>1011048.24904</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>554932.38165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>521042.49576</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1014766.321</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>4755.44246</v>
+        <v>4663.60467</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>2984.7846</v>
@@ -2051,13 +2097,13 @@
         <v>494.04572</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>139.7379</v>
+        <v>118.63875</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>17695.52534</v>
+        <v>17604.16682</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>81117.27250000001</v>
+        <v>80207.50892000001</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>99082.78173999999</v>
@@ -2066,7 +2112,7 @@
         <v>95974.01256999999</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>131599.03377</v>
+        <v>122973.52748</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>141025.24814</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>251365.43968</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>115154.599</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>158.08066</v>
@@ -2113,116 +2164,131 @@
       <c r="M34" s="48" t="n">
         <v>160.60562</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>301.645</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>22836.44955</v>
+        <v>20911.36854</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>25156.10869</v>
+        <v>24206.9603</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>35773.50727</v>
+        <v>34553.6388</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>49727.26193</v>
+        <v>48358.72470000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>54236.23714</v>
+        <v>42219.04967</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>60372.75232</v>
+        <v>56174.11224</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>57242.55514</v>
+        <v>51389.76933</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>71823.66</v>
+        <v>65358.09020000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>88540.39229</v>
+        <v>82495.46201999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>97430.16007</v>
+        <v>90750.28065999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>136244.25136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>132043.34768</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>115319.761</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>86708.93315000001</v>
+        <v>76967.30157</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>98758.03367</v>
+        <v>84818.86816</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>136506.84344</v>
+        <v>128426.08581</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>91470.05014000001</v>
+        <v>87703.48707999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>214542.67096</v>
+        <v>205573.77273</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>276326.16141</v>
+        <v>260202.3841</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>501925.55847</v>
+        <v>466472.5302</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>540283.94151</v>
+        <v>511084.53384</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>733042.59348</v>
+        <v>702054.7724400001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1375006.18159</v>
+        <v>1261480.95619</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>947150.4636499999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>884585.5182200001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1210915.128</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>6845.84631</v>
+        <v>6840.97446</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2335.94182</v>
+        <v>1726.99129</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>929.17535</v>
+        <v>446.49255</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2439.24814</v>
+        <v>2403.30091</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>3890.24877</v>
+        <v>3829.82638</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3655.87847</v>
+        <v>3592.94325</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>12261.6642</v>
+        <v>12246.24866</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>19365.12641</v>
+        <v>19415.21518</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>23007.62578</v>
+        <v>22991.58777</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>37072.15294</v>
@@ -2230,50 +2296,60 @@
       <c r="M37" s="48" t="n">
         <v>33180.26514</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>34808.484</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>24504.14785</v>
+        <v>22847.33592</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>32809.7078</v>
+        <v>32634.60087</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>11570.17343</v>
+        <v>11416.51526</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>16198.69168</v>
+        <v>15496.11269</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>31524.5876</v>
+        <v>30181.70351</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>14672.59156</v>
+        <v>13787.05695</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>34171.49834000001</v>
+        <v>32989.12186</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>65053.54763</v>
+        <v>64037.36246</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>59672.55419</v>
+        <v>59284.83723</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>62916.79469</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>110411.1459</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>110284.7019</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>134910.803</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2285,13 +2361,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>8.50592</v>
+        <v>0</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>34.5132</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>153.781</v>
+        <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>0</v>
@@ -2306,55 +2382,65 @@
         <v>0.01012</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>0.01234</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>278.982</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>50025.13501</v>
+        <v>42606.07055</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>58524.11365</v>
+        <v>45616.78485</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>120172.73884</v>
+        <v>113320.93749</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>68154.55808</v>
+        <v>65643.35957</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>147530.32405</v>
+        <v>140485.18666</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>163546.8126</v>
+        <v>150225.44684</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>354796.36578</v>
+        <v>321567.52999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>351808.53559</v>
+        <v>325212.01133</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>500459.216</v>
+        <v>480054.94252</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1113475.40977</v>
+        <v>1001553.8346</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>538850.76569</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>477224.36904</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>917290.644</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>3919.66409</v>
+        <v>3785.81389</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>2664.96565</v>
@@ -2363,13 +2449,13 @@
         <v>344.07409</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>645.4696700000001</v>
+        <v>315.4729</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>28172.71775</v>
+        <v>27870.56183</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>89041.15612999999</v>
+        <v>88098.57637000001</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>95701.48090000001</v>
@@ -2378,7 +2464,7 @@
         <v>94286.69779999999</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>134841.42297</v>
+        <v>125925.93132</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>151621.11127</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>248627.65947</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>112570.878</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>82.82431</v>
@@ -2425,251 +2516,286 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1331.31558</v>
+        <v>804.28244</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2421.96975</v>
+        <v>2174.1905</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>3490.68173</v>
+        <v>2898.06642</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4023.57665</v>
+        <v>3845.24101</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3390.27959</v>
+        <v>3171.98115</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5255.941650000001</v>
+        <v>4498.36069</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4994.54925</v>
+        <v>3968.14879</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>9170.94008</v>
+        <v>7534.15307</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>14793.19611</v>
+        <v>13528.89517</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>9920.702800000001</v>
+        <v>8317.05257</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>16080.61511</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>15268.52267</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>11055.337</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>83075.6336</v>
+        <v>75342.97676000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>64566.6623</v>
+        <v>55950.03921</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>117286.24644</v>
+        <v>106179.53405</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>118586.72558</v>
+        <v>105456.97014</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>155237.14172</v>
+        <v>134745.69861</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>170634.79561</v>
+        <v>142001.09955</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>235999.4702</v>
+        <v>212099.60892</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>269618.06476</v>
+        <v>227988.19206</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>362058.68712</v>
+        <v>314848.42966</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>465107.25972</v>
+        <v>439393.14941</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>397630.6542</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>383816.7449</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>466495.322</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>61421.65327</v>
+        <v>57262.00096</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>50257.46612</v>
+        <v>42609.12303</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>94328.79558000001</v>
+        <v>85562.40601000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>102059.38666</v>
+        <v>89636.01406999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>121172.45198</v>
+        <v>102159.25579</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>146841.27462</v>
+        <v>119508.79437</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>192424.60558</v>
+        <v>170954.64331</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>233961.9332</v>
+        <v>193352.87453</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>322348.62138</v>
+        <v>277123.75186</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>411341.05955</v>
+        <v>393290.67161</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>319827.30627</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>309273.52415</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>288801.719</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>21653.98033</v>
+        <v>18080.9758</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>14309.19618</v>
+        <v>13340.91618</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>22957.45086</v>
+        <v>20617.12804</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>16527.33892</v>
+        <v>15820.95607</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>34064.68974</v>
+        <v>32586.44282</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>23793.52099</v>
+        <v>22492.30518</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>43574.86462</v>
+        <v>41144.96561</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>35656.13156</v>
+        <v>34635.31753</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>39710.06574000001</v>
+        <v>37724.6778</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>53766.20017</v>
+        <v>46102.4778</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>77803.34793</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>74543.22074999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>177693.603</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>291617.88268</v>
+        <v>294729.46428</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>275164.5233999999</v>
+        <v>270654.45918</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>343569.94946</v>
+        <v>337818.63699</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>382779.72771</v>
+        <v>376734.05867</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>370066.18957</v>
+        <v>348432.02293</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>502476.6662799999</v>
+        <v>481581.01142</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>488148.93845</v>
+        <v>470868.07045</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>369781.37212</v>
+        <v>373215.77874</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>706529.26885</v>
+        <v>695845.7084700001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>470780.94955</v>
+        <v>487344.08575</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>880047.72304</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>896289.9008300001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1866914.896</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>21442.10865</v>
+        <v>20727.30015</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>14715.56979</v>
+        <v>13893.90155</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>48194.61579</v>
+        <v>44439.41314</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>45626.56989999999</v>
+        <v>44243.82514</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>60501.42263</v>
+        <v>34159.23862</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>55939.74782</v>
+        <v>50286.53336</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>49916.472</v>
+        <v>39882.54271</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>98875.17659999999</v>
+        <v>78657.85178</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>122354.74566</v>
+        <v>111301.73907</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>66933.85909</v>
+        <v>64633.1307</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>51851.4377</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>48400.54879</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>107926.064</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>210.43932</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>187.21915</v>
+        <v>186.98333</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>256.61911</v>
@@ -2681,133 +2807,148 @@
         <v>331.59085</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>663.12156</v>
+        <v>482.53168</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>73.91499</v>
+        <v>63.92881</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>537.31286</v>
+        <v>417.19472</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>183.67253</v>
+        <v>129.84812</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>1911.488</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>162.9328</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>159.0928</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3032.761</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>21231.66933</v>
+        <v>20516.86083</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>14528.35064</v>
+        <v>13706.91822</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>47937.99668</v>
+        <v>44182.79403</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>45153.99627</v>
+        <v>43771.25150999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>60169.83178</v>
+        <v>33827.64777</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>55276.62626</v>
+        <v>49804.00168</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>49842.55701</v>
+        <v>39818.6139</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>98337.86374</v>
+        <v>78240.65706</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>122171.07313</v>
+        <v>111171.89095</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>65022.37109</v>
+        <v>62721.6427</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>51688.5049</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>48241.45599</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>104893.303</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>24768.55125</v>
+        <v>23377.25793</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>15503.10822</v>
+        <v>14715.57133</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>101502.10789</v>
+        <v>78900.85866</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>35777.62125</v>
+        <v>34606.4005</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>42803.88046</v>
+        <v>37168.73212</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>50709.81124</v>
+        <v>48276.99665</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>41557.87791</v>
+        <v>33296.01219</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>159726.6389</v>
+        <v>131574.20856</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>68306.26712999999</v>
+        <v>61119.39203</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>123248.47038</v>
+        <v>115778.25373</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>57256.23315</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>52746.27088</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>92059.03599999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>3096.08475</v>
+        <v>2058.92745</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>2663.3782</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>11022.93721</v>
+        <v>11016.83331</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2948.55995</v>
+        <v>2941.82271</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>4943.387860000001</v>
+        <v>4927.8646</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>7886.37549</v>
+        <v>7855.29103</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>8886.651949999999</v>
+        <v>7781.90645</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>8404.74158</v>
+        <v>8402.44017</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>7120.01446</v>
+        <v>7117.77217</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>10218.70758</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>9103.420189999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>26925.529</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1520.36709</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>854.56928</v>
+        <v>833.71985</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>1069.72167</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>510.79207</v>
+        <v>450.98765</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4384.27085</v>
+        <v>4370.86905</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1596.18271</v>
+        <v>1432.62187</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>6488.25755</v>
+        <v>3541.31086</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>6536.36016</v>
+        <v>6133.11825</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3482.95542</v>
+        <v>2790.59004</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>4205.918110000001</v>
+        <v>4079.05186</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3882.85592</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3874.32007</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3808.708</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>20152.09941</v>
+        <v>19797.96339</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>11985.16074</v>
+        <v>11218.47328</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>89409.44901000001</v>
+        <v>66814.30368</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>32318.26923</v>
+        <v>31213.59014</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>33476.22175</v>
+        <v>27869.99847</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>41227.25304</v>
+        <v>38989.08375</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>26182.96841</v>
+        <v>21972.79488</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>144785.53716</v>
+        <v>117038.65014</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>57703.29725</v>
+        <v>51211.02982</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>108823.84469</v>
+        <v>101480.49429</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>44269.95704</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>39768.53062</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>61324.799</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>288291.44008</v>
+        <v>292079.5065</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>274376.98497</v>
+        <v>269832.7894</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>290262.45736</v>
+        <v>303357.19147</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>392628.67636</v>
+        <v>386371.48331</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>387763.73174</v>
+        <v>345422.52943</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>507706.60286</v>
+        <v>483590.54813</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>496507.53254</v>
+        <v>477454.60097</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>308929.90982</v>
+        <v>320299.42196</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>760577.74738</v>
+        <v>746028.05551</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>414466.33826</v>
+        <v>436198.96272</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>874642.92759</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>891944.17874</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1882781.924</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>58360.5343</v>
+        <v>58323.21211</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>57349.21593</v>
+        <v>56281.87493</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>76433.61284999999</v>
+        <v>73381.16512000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>79597.39472</v>
+        <v>77625.90431999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>70094.81924</v>
+        <v>66335.83779000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>75945.03642</v>
+        <v>71662.32139</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>100061.88379</v>
+        <v>96610.07265999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>97151.41959999999</v>
+        <v>92710.6915</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>138173.33297</v>
+        <v>131340.93025</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>110274.93148</v>
+        <v>109508.37095</v>
       </c>
       <c r="M56" s="47" t="n">
         <v>187887.07737</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="47" t="n">
+        <v>325525.844</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>229930.90578</v>
+        <v>233756.29439</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>217027.76904</v>
+        <v>213550.91447</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>213828.84451</v>
+        <v>229976.02635</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>313031.28164</v>
+        <v>308745.57899</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>317668.9125</v>
+        <v>279086.69164</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>431761.56644</v>
+        <v>411928.22674</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>396445.64875</v>
+        <v>380844.52831</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>211778.49022</v>
+        <v>227588.73046</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>622404.41441</v>
+        <v>614687.12526</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>304191.40678</v>
+        <v>326690.59177</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>686755.85022</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>704057.10137</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1557256.08</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
+      </c>
+      <c r="C59" s="35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>39</v>
+      </c>
+      <c r="E59" s="35" t="n">
         <v>55</v>
       </c>
-      <c r="C59" s="35" t="n">
-        <v>40</v>
-      </c>
-      <c r="D59" s="35" t="n">
-        <v>53</v>
-      </c>
-      <c r="E59" s="35" t="n">
-        <v>74</v>
-      </c>
       <c r="F59" s="35" t="n">
+        <v>61</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>54</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>61</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>68</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>69</v>
+      </c>
+      <c r="K59" s="35" t="n">
         <v>76</v>
       </c>
-      <c r="G59" s="35" t="n">
-        <v>72</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>82</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>90</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>102</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>113</v>
-      </c>
       <c r="L59" s="35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>43</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>